--- a/ValueSet-foo-bar.xlsx
+++ b/ValueSet-foo-bar.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -66,49 +66,55 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Health eData Inc</t>
+    <t>HL7 International / Cross-Group Projects</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>null (mailto:ehaas@healthedatainc.com)</t>
+    <t>HL7 International / Cross-Group Projects (http://www.hl7.org/Special/committees/cgp, cgp@lists.HL7.org)</t>
+  </si>
+  <si>
+    <t>Health eData Inc (mailto:ehaas@healthedatainc.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Foo Bar Test ValueSet</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>All rights reserved ... Don't mess with Greatness!!!</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Foo Bar Test ValueSet</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>All rights reserved ... Don't mess with Greatness!!!</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>foo</t>
-  </si>
-  <si>
-    <t>bar</t>
   </si>
   <si>
     <t>System URI</t>
@@ -248,7 +254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -340,40 +346,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>26</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B15" t="s" s="2">
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>28</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -395,38 +409,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-foo-bar.xlsx
+++ b/ValueSet-foo-bar.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Foo Bar Test Cod" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
